--- a/biology/Histoire de la zoologie et de la botanique/Abraham_Erasmus_van_Wyk/Abraham_Erasmus_van_Wyk.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Abraham_Erasmus_van_Wyk/Abraham_Erasmus_van_Wyk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abraham Erasmus van Wyk, également appelé Braam van Wyk, est un botaniste sud-africain né en 1952.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abraham Erasmus van Wyk a étudié à l'université de Potchefstroom (Potchefstroomse Universiteit vir Christelike Hoër Onderwys (nl)) et à l'université de Pretoria.
 En 1985, il a soutenu à l'université de Pretoria sa thèse intitulée Contributions towards a new classification of Eugenia L. (Myrtaceae) in southern Africa. Depuis 1977, il est rattaché au département de botanique de l'université de Pretoria. Il y est Professeur de taxonomie et de systématique. Il est également conservateur de l'herbier HGWJ Schweickerdt, qui dépend de l'université.
@@ -546,7 +560,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Field Guide to the Wild Flowers of the Witwatersrand &amp; Pretoria Region; B. Van Wyk &amp; S. Malan; New Holland Publishers (1988):  (ISBN 0869778145)
 Field Guide to the Wild flowers of the Highveld; Braam van Wyk &amp; Sasa Malan; Struik (1997);  (ISBN 9781868720583)
